--- a/element.xlsx
+++ b/element.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\element\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF15AED2-81A0-497D-A31D-3BB0EDCFBD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFE087-7041-4B39-8EE4-53BBF32D8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A9B8B1C-1B5C-49F6-83F4-46CC389FFD50}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Liquidity pool contract Addresses</t>
   </si>
@@ -208,13 +208,207 @@
   <si>
     <t>alUSD3CRV-f - ePyvCurve-alUSD
 Jan 28, 2022</t>
+  </si>
+  <si>
+    <t>yield contract addresses</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>0x415747EE98D482e6dD9B431fa76Ad5553744F247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DAI - eYyvDAI
+ Apr 30, 2022</t>
+  </si>
+  <si>
+    <t>0x8E9d636BbE6939BD0F52849afc02C0c66F6A3603</t>
+  </si>
+  <si>
+    <t>LUSD3CRV-f - eYyvCurveLUSD
+ Apr 30, 2022</t>
+  </si>
+  <si>
+    <t>0xCF354603A9AEbD2Ff9f33E1B04246d8Ea204ae95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+WBTC - eYyvWBTC
+ Apr 30, 2022</t>
+  </si>
+  <si>
+    <t>0x7173b184525feAD2fFbde5FBe6FCB65Ea8246eE7</t>
+  </si>
+  <si>
+    <t>USDC - eYyvUSDC
+ Apr 29, 2022</t>
+  </si>
+  <si>
+    <t>0x4aBB6FD289fA70056CFcB58ceBab8689921eB922</t>
+  </si>
+  <si>
+    <t>crv3crypto - eYyvcrv3crypto
+Apr 29, 2022</t>
+  </si>
+  <si>
+    <t>0x7C9cF12d783821d5C63d8E9427aF5C44bAd92445</t>
+  </si>
+  <si>
+    <t>USDC - eYyvUSDC
+Dec 17, 2021</t>
+  </si>
+  <si>
+    <t>0x062F38735AAC32320DB5e2DBBEb07968351D7C72</t>
+  </si>
+  <si>
+    <t>steCRV - eYyvcrvSTETH
+ Apr 15, 2022</t>
+  </si>
+  <si>
+    <t>0xB70c25D96EF260eA07F650037Bf68F5d6583885e</t>
+  </si>
+  <si>
+    <t>DAI - eYyvDAI
+Jan 28, 2022</t>
+  </si>
+  <si>
+    <t>0x4212bE3C7b255bA4B29705573ABD023cdcE21542</t>
+  </si>
+  <si>
+    <t>steCRV - eYyvcrvSTETH
+Jan 28, 2022</t>
+  </si>
+  <si>
+    <t>0x9e030b67a8384cbba09D5927533Aa98010C87d91</t>
+  </si>
+  <si>
+    <t>USDC - eYyvUSDC
+ Jan 28, 2022</t>
+  </si>
+  <si>
+    <t>0x7320d680Ca9BCE8048a286f00A79A2c9f8DCD7b3</t>
+  </si>
+  <si>
+    <t>WBTC - eYyvWBTC
+Nov 26, 2021</t>
+  </si>
+  <si>
+    <t>0xd16847480D6bc218048CD31Ad98b63CC34e5c2bF</t>
+  </si>
+  <si>
+    <t>crv3crypto - eYyvcrv3crypto
+Nov 13, 2021</t>
+  </si>
+  <si>
+    <t>0x2D6e3515C8b47192Ca3913770fa741d3C4Dac354</t>
+  </si>
+  <si>
+    <t>USDC - eYyvUSDC
+Oct 29, 2021</t>
+  </si>
+  <si>
+    <t>0xE54B3F5c444a801e61BECDCa93e74CdC1C4C1F90</t>
+  </si>
+  <si>
+    <t>DAI - eYyvDAI
+ Oct 16, 2021</t>
+  </si>
+  <si>
+    <t>0xD5D7bc115B32ad1449C6D0083E43C87be95F2809</t>
+  </si>
+  <si>
+    <t>steCRV - eYyvcrvSTETH
+Oct 16, 2021</t>
+  </si>
+  <si>
+    <t>0xF94A7Df264A2ec8bCEef2cFE54d7cA3f6C6DFC7a</t>
+  </si>
+  <si>
+    <t>crvTricrypto - eYyvCrvTriCrypto
+Aug 15, 2021</t>
+  </si>
+  <si>
+    <t>0x67F8FCb9D3c463da05DE1392EfDbB2A87F8599Ea</t>
+  </si>
+  <si>
+    <t>LUSD3CRV-f - eYyvCurveLUSD
+Dec 27, 2021</t>
+  </si>
+  <si>
+    <t>0xDe620bb8BE43ee54d7aa73f8E99A7409Fe511084</t>
+  </si>
+  <si>
+    <t>LUSD3CRV-f - eYyvCurveLUSD
+Sep 28, 2021</t>
+  </si>
+  <si>
+    <t>alUSD3CRV-f - ePyvCurve-alUSD
+ Apr 30, 2022</t>
+  </si>
+  <si>
+    <t>0x6FE95FafE2F86158c77Bf18350672D360BfC78a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MIM-3LP3CRV-f - eYyvCurve-MIM
+ Apr 29, 2022</t>
+  </si>
+  <si>
+    <t>0x5fA3ce1fB47bC8A29B5C02e2e7167799BBAf5F41</t>
+  </si>
+  <si>
+    <t>eursCRV - eYyvCurve-EURS
+ Feb 12, 2022</t>
+  </si>
+  <si>
+    <t>0x1D310a6238e11c8BE91D83193C88A99eB66279bE</t>
+  </si>
+  <si>
+    <t>MIM-3LP3CRV-f - eYyvCurve-MIM
+Feb 11, 2022</t>
+  </si>
+  <si>
+    <t>0x802d0f2f4b5f1fb5BfC9b2040a703c1464e1D4CB</t>
+  </si>
+  <si>
+    <t>alUSD3CRV-f - eYyvCurve-alUSD
+Jan 28, 2022</t>
+  </si>
+  <si>
+    <t>Yield contract address</t>
+  </si>
+  <si>
+    <t>0xCFe60a1535ecc5B0bc628dC97111C8bb01637911</t>
+  </si>
+  <si>
+    <t>USDC-sep17-2022</t>
+  </si>
+  <si>
+    <t>0x52C9886d5D87B0f06EbACBEff750B5Ffad5d17d9</t>
+  </si>
+  <si>
+    <t>USDC-apr29-2022</t>
+  </si>
+  <si>
+    <t>0x2c72692E94E757679289aC85d3556b2c0f717E0E</t>
+  </si>
+  <si>
+    <t>DAI-apr30-2022</t>
+  </si>
+  <si>
+    <t>0x49e9e169f0B661Ea0A883f490564F4CC275123Ed</t>
+  </si>
+  <si>
+    <t>WBTC-apr30-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +429,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -261,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -274,6 +476,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6086B0-CA5C-41CB-A5C0-EF3C564A5FF6}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,10 +808,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -799,6 +1005,238 @@
       </c>
       <c r="B27" s="3" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/element.xlsx
+++ b/element.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clickdee\element\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFE087-7041-4B39-8EE4-53BBF32D8EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE777E-4ACD-45AF-9F39-F24679DF427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A9B8B1C-1B5C-49F6-83F4-46CC389FFD50}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
-  <si>
-    <t>Liquidity pool contract Addresses</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="127">
   <si>
     <t>name of pool</t>
   </si>
@@ -210,9 +207,6 @@
 Jan 28, 2022</t>
   </si>
   <si>
-    <t>yield contract addresses</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -402,6 +396,75 @@
   </si>
   <si>
     <t>WBTC-apr30-2022</t>
+  </si>
+  <si>
+    <t>0x21Fb757C2d3a5C574e8721027C3d7a506d77b6b3</t>
+  </si>
+  <si>
+    <t>steCRV-sep16-2022</t>
+  </si>
+  <si>
+    <t>0x2361102893CCabFb543bc55AC4cC8d6d0824A67E</t>
+  </si>
+  <si>
+    <t>steCRV-apr15-2022</t>
+  </si>
+  <si>
+    <t>0x0740A6CfB9468B8b53070C0B327099293DCCB82d</t>
+  </si>
+  <si>
+    <t>LUSD3CRV-f-apr30-2022</t>
+  </si>
+  <si>
+    <t>0xEaa1cBA8CC3CF01a92E9E853E90277B5B8A23e07</t>
+  </si>
+  <si>
+    <t>alUSD3CRV-f-apr30-2022</t>
+  </si>
+  <si>
+    <t>0xC63958D9D01eFA6B8266b1df3862c6323CbDb52B</t>
+  </si>
+  <si>
+    <t>MIM-3LP3CRV-f-apr29-2022</t>
+  </si>
+  <si>
+    <t>0x285328906D0D33cb757c1E471F5e2176683247c2</t>
+  </si>
+  <si>
+    <t>crv3crypto-apr29-2022</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>balanceOf</t>
+  </si>
+  <si>
+    <t>totalSupply</t>
+  </si>
+  <si>
+    <t>getVault</t>
+  </si>
+  <si>
+    <t>to get the Amount ofLP tokens received</t>
+  </si>
+  <si>
+    <t>to get the total supply of lp tokens</t>
+  </si>
+  <si>
+    <t>Get the reserves og the pool tokens by calling the getPoolTokens function which returns the token addresses and token reserves</t>
+  </si>
+  <si>
+    <t>function utility</t>
+  </si>
+  <si>
+    <t>to get the balance of the user</t>
+  </si>
+  <si>
+    <t>yield  token pool contract addresses</t>
+  </si>
+  <si>
+    <t>Principal tokoens Liquidity pool contract Addresses</t>
   </si>
 </sst>
 </file>
@@ -795,448 +858,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6086B0-CA5C-41CB-A5C0-EF3C564A5FF6}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.6640625" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="41" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>100</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>104</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
